--- a/biology/Histoire de la zoologie et de la botanique/Franz_Xaver_von_Wulfen/Franz_Xaver_von_Wulfen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Franz_Xaver_von_Wulfen/Franz_Xaver_von_Wulfen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Franz Xaver von Wulfen, né le 5 novembre 1728 à Belgrade et décédé le 16 mars 1805 à Klagenfurt (Carinthie) était un prêtre jésuite autrichien, botaniste, physicien, un mathématicien et minéralogiste. L'espèce minérale Wulfénite est nommée après lui.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du Feldmarschall-Leutnant baron Christian Friedrich von Wulfen, Franz Xaver est né pendant l'occupation de Belgrade par les troupes impériales de la monarchie de Habsbourg. Il fait ses études au lycée Jésuite de Kaschau (Cassovie, aujourd'hui Košice en Slovaquie) alors en Haute-Hongrie et entre dans la Compagnie de Jésus le 14 octobre 1745, âgé de 17 ans, à Vienne.
 Sa formation spirituelle terminée il a étudié les mathématiques, la philosophie et la théologie. Il était enseignant d'abord à Görz (Gorizia), à l'Académie de la reine Thérèse de Vienne, à Graz en Styrie, à Neusohl (aujourd'hui Banská Bystrica) et à partir de 1755 à Laibach (Ljubljana) en Carniole. Il est ordonné prêtre à Graz, en 1763. À partir de 1764 il enseigne la physique et les mathématiques au lycée de Klagenfurt, capitale de la Carinthie.
@@ -547,7 +561,9 @@
           <t>Reconnaissance publique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 1845, Le minéralogiste Wilhelm Karl Ritter von Haidinger lui a dédié une espèce minérale: la 'wulfénite'.
 En 1966 l'Autriche consacre un timbre-poste à la 'Wulfénia', fleur des Alpes. En 1992, les États-Unis - et plus tard, en 1997 - la Slovénie émettent des timbres-poste illustrant le minéral qui porte son nom: la 'Wulfénite'.</t>
@@ -578,7 +594,9 @@
           <t>Écrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Plantae rariores carinthiacae. In : Miscellanea austriaca ad botanicam, chemiam et historiam naturalem spectantia, hrsg. von N. J. Jacquin. Volume I (1778), pages 147-163 ; volume II (1781), pages : 25-183.
 Abhandlung vom Kärntner Bleispate, 1785.
